--- a/UseCaseIScenarij/PretragaObjekata.xlsx
+++ b/UseCaseIScenarij/PretragaObjekata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Scenarij:</t>
   </si>
@@ -24,6 +24,33 @@
     <t>Pretraga objekata</t>
   </si>
   <si>
+    <t>Naziv:</t>
+  </si>
+  <si>
+    <t>Opis:</t>
+  </si>
+  <si>
+    <t>Korisnik aplikacije nakon sto se registruje(moze biti i gost) mora prvo pronaci svoj omiljeni fast-food, restoran, itd., da bi mogao naruciti hranu. To mu je omoguceno na vise nacina. Moze pretrazivati po tipu objekata, jelovniku, itd., nakon cega nastavlja proces narudzbe.</t>
+  </si>
+  <si>
+    <t>Glavni tok:</t>
+  </si>
+  <si>
+    <t>Zavrsava pretrazivanje objekata na dugme "Trazi" nakon kojeg bira jela.</t>
+  </si>
+  <si>
+    <t>Preduvijeti:</t>
+  </si>
+  <si>
+    <t>Korisnik mora koristiti aplikaciju</t>
+  </si>
+  <si>
+    <t>Posljedice:</t>
+  </si>
+  <si>
+    <t>Korisniku se prikazuju objekti</t>
+  </si>
+  <si>
     <t>Tok događaja:</t>
   </si>
   <si>
@@ -52,6 +79,12 @@
   </si>
   <si>
     <t>Neuspjesna pretraga</t>
+  </si>
+  <si>
+    <t>Preduvjeti:</t>
+  </si>
+  <si>
+    <t>Ne postoji niti jedan registrovan objekat</t>
   </si>
   <si>
     <r>
@@ -78,7 +111,7 @@
     <t xml:space="preserve">Sistem </t>
   </si>
   <si>
-    <t>4. U slucaju da nema niti jednog objekta korisnik se obavjestava, te se vrsi ponovna pretraga</t>
+    <t>1. U slucaju da nema niti jednog objekta korisnik se obavjestava, te se vrsi ponovna pretraga</t>
   </si>
 </sst>
 </file>
@@ -88,11 +121,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;KM&quot;_-;\-* #,##0.00\ &quot;KM&quot;_-;_-* &quot;-&quot;??\ &quot;KM&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +157,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,14 +194,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -156,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +232,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -186,6 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -194,78 +278,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -283,97 +338,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,92 +522,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -581,10 +636,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -606,6 +696,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -616,21 +730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,38 +751,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,175 +780,196 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1194,10 +1294,14 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1207,126 +1311,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="144" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="87.15" spans="1:2">
-      <c r="A5" s="6" t="s">
+    <row r="4" ht="43.2" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="115.95" spans="1:2">
-      <c r="A6" s="8" t="s">
+    <row r="5" ht="31" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="130.35" spans="1:3">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+    </row>
+    <row r="7" ht="16" customHeight="1"/>
+    <row r="9" ht="15.15" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="43.95" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="43.95" spans="1:3">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" ht="15.15" spans="1:3">
-      <c r="A15" s="15" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" ht="14" customHeight="1" spans="1:3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:3">
+      <c r="A17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" ht="14" customHeight="1" spans="1:3">
+      <c r="A19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" ht="15.15" spans="1:3">
+      <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" ht="15.15" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="87.15" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="173.55" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
+      <c r="B20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" ht="58.35" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
